--- a/HealthDesk.Ui/dist/health-desk.ui/browser/assets/db/database.xlsx
+++ b/HealthDesk.Ui/dist/health-desk.ui/browser/assets/db/database.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" firstSheet="14" activeTab="17"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23148" windowHeight="9180" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Drugs" sheetId="1" r:id="rId1"/>
     <sheet name="Strengths" sheetId="2" r:id="rId2"/>
     <sheet name="SelfRecords" sheetId="15" r:id="rId3"/>
-    <sheet name="Food" sheetId="16" r:id="rId4"/>
-    <sheet name="Exercise" sheetId="17" r:id="rId5"/>
+    <sheet name="Foods" sheetId="16" r:id="rId4"/>
+    <sheet name="Exercises" sheetId="17" r:id="rId5"/>
     <sheet name="Frequencies" sheetId="3" r:id="rId6"/>
     <sheet name="Systems" sheetId="4" r:id="rId7"/>
     <sheet name="Forms" sheetId="5" r:id="rId8"/>
@@ -34,12 +34,12 @@
     <sheet name="PostGraduations" sheetId="20" r:id="rId20"/>
     <sheet name="Specializations" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2360" uniqueCount="1162">
   <si>
     <t>Cetirizine</t>
   </si>
@@ -2372,591 +2372,15 @@
     <t>mL/min/1.73m²</t>
   </si>
   <si>
-    <t>Kadhi</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Prawn Curry</t>
-  </si>
-  <si>
-    <t>Salted Lassi</t>
-  </si>
-  <si>
-    <t>Batata Vada</t>
-  </si>
-  <si>
-    <t>Scrambled Eggs</t>
-  </si>
-  <si>
-    <t>Egg Bhurji</t>
-  </si>
-  <si>
-    <t>Masala Kaju</t>
-  </si>
-  <si>
-    <t>Double Ka Meetha</t>
-  </si>
-  <si>
-    <t>Puri</t>
-  </si>
-  <si>
-    <t>Masala Corn</t>
-  </si>
-  <si>
-    <t>Banana Chips</t>
-  </si>
-  <si>
-    <t>Bhel Puri</t>
-  </si>
-  <si>
-    <t>Bhujia</t>
-  </si>
-  <si>
-    <t>Pakora</t>
-  </si>
-  <si>
-    <t>Sheera</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>Undhiyu</t>
-  </si>
-  <si>
-    <t>Dabeli</t>
-  </si>
-  <si>
-    <t>Cheese Dosa</t>
-  </si>
-  <si>
-    <t>Imarti</t>
-  </si>
-  <si>
-    <t>Boiled Egg</t>
-  </si>
-  <si>
-    <t>Murukku</t>
-  </si>
-  <si>
-    <t>Paneer Roll</t>
-  </si>
-  <si>
-    <t>Boondi Ladoo</t>
-  </si>
-  <si>
-    <t>Omelette</t>
-  </si>
-  <si>
-    <t>Pani Puri</t>
-  </si>
-  <si>
-    <t>Malpua</t>
-  </si>
-  <si>
-    <t>Sugarcane Juice</t>
-  </si>
-  <si>
-    <t>Besan Laddu</t>
-  </si>
-  <si>
-    <t>Patra</t>
-  </si>
-  <si>
-    <t>Milkshake</t>
-  </si>
-  <si>
-    <t>Moong Dal Chilla</t>
-  </si>
-  <si>
-    <t>Momos</t>
-  </si>
-  <si>
-    <t>Chilli Paneer</t>
-  </si>
-  <si>
-    <t>Peda</t>
-  </si>
-  <si>
-    <t>Sabudana Chivda</t>
-  </si>
-  <si>
-    <t>Sandesh</t>
-  </si>
-  <si>
-    <t>Onion Uttapam</t>
-  </si>
-  <si>
-    <t>Fish Curry</t>
-  </si>
-  <si>
-    <t>Gobhi Paratha</t>
-  </si>
-  <si>
-    <t>Chikki</t>
-  </si>
-  <si>
-    <t>Pakora Chaat</t>
-  </si>
-  <si>
-    <t>Chinese Noodles</t>
-  </si>
-  <si>
-    <t>Shami Kebab</t>
-  </si>
-  <si>
-    <t>Coconut Water</t>
-  </si>
-  <si>
-    <t>Rajma</t>
-  </si>
-  <si>
-    <t>Schezwan Noodles</t>
-  </si>
-  <si>
-    <t>Masala Peanuts</t>
-  </si>
-  <si>
-    <t>Bread Pakora</t>
-  </si>
-  <si>
-    <t>Masala Chai</t>
-  </si>
-  <si>
-    <t>Payasam</t>
-  </si>
-  <si>
-    <t>Pulao</t>
-  </si>
-  <si>
-    <t>Omapodi</t>
-  </si>
-  <si>
-    <t>Samosa Chaat</t>
-  </si>
-  <si>
-    <t>Aloo Chaat</t>
-  </si>
-  <si>
-    <t>Poha</t>
-  </si>
-  <si>
-    <t>Chana Jor Garam</t>
-  </si>
-  <si>
-    <t>Jalebi</t>
-  </si>
-  <si>
-    <t>Chakli</t>
-  </si>
-  <si>
-    <t>Chum Chum</t>
-  </si>
-  <si>
-    <t>Paneer Biryani</t>
-  </si>
-  <si>
-    <t>Paneer Paratha</t>
-  </si>
-  <si>
-    <t>Buttermilk</t>
-  </si>
-  <si>
-    <t>Chicken Tikka</t>
-  </si>
-  <si>
-    <t>Namak Pare</t>
-  </si>
-  <si>
-    <t>Upma</t>
-  </si>
-  <si>
-    <t>Shankarpali</t>
-  </si>
-  <si>
-    <t>Schezwan Fried Rice</t>
-  </si>
-  <si>
-    <t>Lemonade</t>
-  </si>
-  <si>
-    <t>Ribbon Pakoda</t>
-  </si>
-  <si>
-    <t>Cheedai</t>
-  </si>
-  <si>
-    <t>Vada Pav</t>
-  </si>
-  <si>
-    <t>Pav Bhaji</t>
-  </si>
-  <si>
-    <t>Puran Poli</t>
-  </si>
-  <si>
-    <t>Kulfi</t>
-  </si>
-  <si>
-    <t>Paneer Tikka</t>
-  </si>
-  <si>
-    <t>Samosa</t>
-  </si>
-  <si>
-    <t>Gajar Halwa</t>
-  </si>
-  <si>
-    <t>Bombay Sandwich</t>
-  </si>
-  <si>
-    <t>Matar Paneer</t>
-  </si>
-  <si>
-    <t>Papdi Chaat</t>
-  </si>
-  <si>
-    <t>Rasgulla</t>
-  </si>
-  <si>
-    <t>Chocolate Milkshake</t>
-  </si>
-  <si>
-    <t>Shakar Pare</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Uttapam</t>
-  </si>
-  <si>
-    <t>Chole</t>
-  </si>
-  <si>
-    <t>Thepla</t>
-  </si>
-  <si>
-    <t>Mango Lassi</t>
-  </si>
-  <si>
-    <t>Chicken Biryani</t>
-  </si>
-  <si>
-    <t>Plain Dosa</t>
-  </si>
-  <si>
-    <t>Dahi Puri</t>
-  </si>
-  <si>
-    <t>Ladoo</t>
-  </si>
-  <si>
-    <t>Kheer</t>
-  </si>
-  <si>
-    <t>Shahi Tukda</t>
-  </si>
-  <si>
-    <t>Anarsa</t>
-  </si>
-  <si>
-    <t>Sweet Lassi</t>
-  </si>
-  <si>
-    <t>Seekh Kebab</t>
-  </si>
-  <si>
-    <t>Mutton Curry</t>
-  </si>
-  <si>
-    <t>Chana Masala</t>
-  </si>
-  <si>
-    <t>Mango Milkshake</t>
-  </si>
-  <si>
-    <t>Sev Usal</t>
-  </si>
-  <si>
-    <t>Mathri</t>
-  </si>
-  <si>
-    <t>Filter Coffee</t>
-  </si>
-  <si>
-    <t>Coconut Ladoo</t>
-  </si>
-  <si>
-    <t>Sev Puri</t>
-  </si>
-  <si>
-    <t>Veg Biryani</t>
-  </si>
-  <si>
-    <t>Ragda Pattice</t>
-  </si>
-  <si>
-    <t>Methi Thepla</t>
-  </si>
-  <si>
-    <t>Gathiya</t>
-  </si>
-  <si>
-    <t>Vada</t>
-  </si>
-  <si>
-    <t>Dhokli</t>
-  </si>
-  <si>
-    <t>Dosa</t>
-  </si>
-  <si>
-    <t>Sev Tameta</t>
-  </si>
-  <si>
-    <t>Masala Dosa</t>
-  </si>
-  <si>
-    <t>Aloo Tikki</t>
-  </si>
-  <si>
-    <t>Poha Chivda</t>
-  </si>
-  <si>
-    <t>Egg Curry</t>
-  </si>
-  <si>
-    <t>Spring Roll</t>
-  </si>
-  <si>
-    <t>Palak Paneer</t>
-  </si>
-  <si>
-    <t>Tilgul</t>
-  </si>
-  <si>
-    <t>Cham Cham</t>
-  </si>
-  <si>
-    <t>Coconut Barfi</t>
-  </si>
-  <si>
-    <t>Thandai</t>
-  </si>
-  <si>
-    <t>Chicken Roll</t>
-  </si>
-  <si>
-    <t>Baingan Bharta</t>
-  </si>
-  <si>
-    <t>Aloo Gobi</t>
-  </si>
-  <si>
-    <t>Plain Uttapam</t>
-  </si>
-  <si>
-    <t>Roti</t>
-  </si>
-  <si>
-    <t>Paneer</t>
-  </si>
-  <si>
-    <t>Chana Dal Halwa</t>
-  </si>
-  <si>
-    <t>Banana Milkshake</t>
-  </si>
-  <si>
-    <t>Mysore Pak</t>
-  </si>
-  <si>
-    <t>Shrikhand</t>
-  </si>
-  <si>
-    <t>Sabudana Vada</t>
-  </si>
-  <si>
-    <t>Khakhra</t>
-  </si>
-  <si>
-    <t>Aam Panna</t>
-  </si>
-  <si>
-    <t>Mutton Biryani</t>
-  </si>
-  <si>
-    <t>Biryani</t>
-  </si>
-  <si>
-    <t>Kanda Bhaji</t>
-  </si>
-  <si>
-    <t>Motichoor Ladoo</t>
-  </si>
-  <si>
-    <t>Fish Tikka</t>
-  </si>
-  <si>
-    <t>Muthia</t>
-  </si>
-  <si>
-    <t>Fried Rice</t>
-  </si>
-  <si>
-    <t>Vanilla Milkshake</t>
-  </si>
-  <si>
-    <t>Rabri</t>
-  </si>
-  <si>
-    <t>Butter Chicken</t>
-  </si>
-  <si>
-    <t>Falooda</t>
-  </si>
-  <si>
-    <t>Chapati</t>
-  </si>
-  <si>
-    <t>Basundi</t>
-  </si>
-  <si>
-    <t>Dhokla</t>
-  </si>
-  <si>
-    <t>Chole Bhature</t>
-  </si>
-  <si>
-    <t>Dal</t>
-  </si>
-  <si>
-    <t>Aloo Bhujia</t>
-  </si>
-  <si>
-    <t>Besan Chilla</t>
-  </si>
-  <si>
-    <t>Mutton Roll</t>
-  </si>
-  <si>
-    <t>Idli</t>
-  </si>
-  <si>
-    <t>Handvo</t>
-  </si>
-  <si>
-    <t>Paneer Pakora</t>
-  </si>
-  <si>
-    <t>Kaju Katli</t>
-  </si>
-  <si>
-    <t>Egg Roll</t>
-  </si>
-  <si>
-    <t>Hara Bhara Kebab</t>
-  </si>
-  <si>
-    <t>Suji Halwa</t>
-  </si>
-  <si>
-    <t>Strawberry Milkshake</t>
-  </si>
-  <si>
-    <t>Paneer Bhurji</t>
-  </si>
-  <si>
-    <t>Gulab Jamun</t>
-  </si>
-  <si>
-    <t>Manchurian</t>
-  </si>
-  <si>
-    <t>Burger</t>
-  </si>
-  <si>
-    <t>Chicken Curry</t>
-  </si>
-  <si>
-    <t>Bhatura</t>
-  </si>
-  <si>
-    <t>Sabudana Khichdi</t>
-  </si>
-  <si>
-    <t>Modak</t>
-  </si>
-  <si>
-    <t>Barfi</t>
-  </si>
-  <si>
-    <t>Hakka Noodles</t>
-  </si>
-  <si>
-    <t>Jaljeera</t>
-  </si>
-  <si>
-    <t>Aloo Paratha</t>
-  </si>
-  <si>
-    <t>Thattai</t>
-  </si>
-  <si>
-    <t>Badam Halwa</t>
-  </si>
-  <si>
-    <t>Nankhatai</t>
-  </si>
-  <si>
-    <t>Murmura</t>
-  </si>
-  <si>
-    <t>Kesari Bath</t>
-  </si>
-  <si>
-    <t>Nimbu Pani</t>
-  </si>
-  <si>
-    <t>Bhindi Fry</t>
-  </si>
-  <si>
-    <t>Misal Pav</t>
-  </si>
-  <si>
     <t>Yoga</t>
   </si>
   <si>
     <t>Pilates</t>
   </si>
   <si>
-    <t>Aerobics</t>
-  </si>
-  <si>
     <t>Hiking</t>
   </si>
   <si>
-    <t>Stair Climbing</t>
-  </si>
-  <si>
-    <t>Rowing</t>
-  </si>
-  <si>
-    <t>Tennis</t>
-  </si>
-  <si>
-    <t>Basketball</t>
-  </si>
-  <si>
-    <t>Football</t>
-  </si>
-  <si>
-    <t>Badminton</t>
-  </si>
-  <si>
     <t>Boxing</t>
   </si>
   <si>
@@ -2969,66 +2393,18 @@
     <t>CrossFit</t>
   </si>
   <si>
-    <t>Pranayama</t>
-  </si>
-  <si>
     <t>Gardening</t>
   </si>
   <si>
-    <t>Car Washing</t>
-  </si>
-  <si>
     <t>Mopping</t>
   </si>
   <si>
-    <t>Golf</t>
-  </si>
-  <si>
-    <t>Volleyball</t>
-  </si>
-  <si>
-    <t>Rock Climbing</t>
-  </si>
-  <si>
     <t>Horse Riding</t>
   </si>
   <si>
-    <t>Table Tennis</t>
-  </si>
-  <si>
-    <t>Judo</t>
-  </si>
-  <si>
-    <t>Karate</t>
-  </si>
-  <si>
-    <t>Taekwondo</t>
-  </si>
-  <si>
-    <t>Wrestling</t>
-  </si>
-  <si>
-    <t>Bharatanatyam</t>
-  </si>
-  <si>
-    <t>Kathak</t>
-  </si>
-  <si>
     <t>Walking (slow)</t>
   </si>
   <si>
-    <t>Walking (fast)</t>
-  </si>
-  <si>
-    <t>Running (slow)</t>
-  </si>
-  <si>
-    <t>Running (fast)</t>
-  </si>
-  <si>
-    <t>Jogging</t>
-  </si>
-  <si>
     <t>Cycling (leisure)</t>
   </si>
   <si>
@@ -3038,24 +2414,9 @@
     <t>Swimming (leisure)</t>
   </si>
   <si>
-    <t>Swimming (fast)</t>
-  </si>
-  <si>
     <t>Surya Namaskar</t>
   </si>
   <si>
-    <t>Skipping Rope</t>
-  </si>
-  <si>
-    <t>Dancing (Bollywood)</t>
-  </si>
-  <si>
-    <t>Dancing (Classical)</t>
-  </si>
-  <si>
-    <t>Weight Lifting</t>
-  </si>
-  <si>
     <t>Push-ups</t>
   </si>
   <si>
@@ -3077,27 +2438,6 @@
     <t>Burpees</t>
   </si>
   <si>
-    <t>Crunches</t>
-  </si>
-  <si>
-    <t>Leg Raises</t>
-  </si>
-  <si>
-    <t>Bhangra</t>
-  </si>
-  <si>
-    <t>Cricket (batting)</t>
-  </si>
-  <si>
-    <t>Cricket (bowling)</t>
-  </si>
-  <si>
-    <t>Hockey</t>
-  </si>
-  <si>
-    <t>Cleaning (sweeping)</t>
-  </si>
-  <si>
     <t>Jumping Jacks</t>
   </si>
   <si>
@@ -3113,18 +2453,9 @@
     <t>HIIT</t>
   </si>
   <si>
-    <t>Piloxing</t>
-  </si>
-  <si>
     <t>Trekking</t>
   </si>
   <si>
-    <t>Jump Squats</t>
-  </si>
-  <si>
-    <t>Resistance Band Exercises</t>
-  </si>
-  <si>
     <t>Cardiology</t>
   </si>
   <si>
@@ -3678,6 +3009,522 @@
   </si>
   <si>
     <t>FRCPCH</t>
+  </si>
+  <si>
+    <t>Roti (Wheat) 1 medium (40g)</t>
+  </si>
+  <si>
+    <t>Paratha 1 medium (70g)</t>
+  </si>
+  <si>
+    <t>Naan 1 medium</t>
+  </si>
+  <si>
+    <t>Idli 1 piece (50g)</t>
+  </si>
+  <si>
+    <t>Dosa 1 medium (100g)</t>
+  </si>
+  <si>
+    <t>Medu Vada 1 piece (50g)</t>
+  </si>
+  <si>
+    <t>Upma 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Poha 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Pongal 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Sambar 1 cup (200ml)</t>
+  </si>
+  <si>
+    <t>Rasam 1 cup (200ml)</t>
+  </si>
+  <si>
+    <t>Rice (cooked, white) 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Rice (cooked, brown) 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Pulao 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Biryani 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Curd (plain, whole milk) 1 cup (250ml)</t>
+  </si>
+  <si>
+    <t>Curd (low-fat) 1 cup (250ml)</t>
+  </si>
+  <si>
+    <t>Paneer (raw) 100g</t>
+  </si>
+  <si>
+    <t>Paneer Butter Masala 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Palak Paneer 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Chole 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Rajma 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Dal (Toor/Masoor) 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Dal Makhani 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Aloo Gobi 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Bhindi Fry 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Baingan Bharta 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Mixed Veg Curry 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Vegetable Kofta 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Chicken Curry 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Butter Chicken 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Tandoori Chicken 1 leg (150g)</t>
+  </si>
+  <si>
+    <t>Fish Curry 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Egg Curry 1 egg + gravy</t>
+  </si>
+  <si>
+    <t>Boiled Egg 1 large (50g)</t>
+  </si>
+  <si>
+    <t>Omelette 1 egg</t>
+  </si>
+  <si>
+    <t>Pesarattu 1 piece (100g)</t>
+  </si>
+  <si>
+    <t>Sabudana Khichdi 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Misal Pav 1 plate</t>
+  </si>
+  <si>
+    <t>Pav Bhaji 1 plate (2 pav)</t>
+  </si>
+  <si>
+    <t>Vada Pav 1 piece</t>
+  </si>
+  <si>
+    <t>Samosa 1 medium</t>
+  </si>
+  <si>
+    <t>Kachori 1 piece</t>
+  </si>
+  <si>
+    <t>Dhokla 1 piece (40g)</t>
+  </si>
+  <si>
+    <t>Khandvi 1 roll</t>
+  </si>
+  <si>
+    <t>Sev 1 tbsp (10g)</t>
+  </si>
+  <si>
+    <t>Pakora (Vegetable) 1 piece (30g)</t>
+  </si>
+  <si>
+    <t>Bhajji (Onion/Mirchi) 1 piece</t>
+  </si>
+  <si>
+    <t>Chutney (Coconut) 2 tbsp (30g)</t>
+  </si>
+  <si>
+    <t>Chutney (Mint) 2 tbsp (30g)</t>
+  </si>
+  <si>
+    <t>Pickle 1 tbsp (15g)</t>
+  </si>
+  <si>
+    <t>Chapati (Multigrain) 1 medium</t>
+  </si>
+  <si>
+    <t>Thepla 1 piece</t>
+  </si>
+  <si>
+    <t>Khakhra 1 piece (25g)</t>
+  </si>
+  <si>
+    <t>Bhel Puri 1 plate (200g)</t>
+  </si>
+  <si>
+    <t>Pani Puri 6 puris</t>
+  </si>
+  <si>
+    <t>Sev Puri 1 plate</t>
+  </si>
+  <si>
+    <t>Chana Masala 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Aloo Paratha 1 piece (100g)</t>
+  </si>
+  <si>
+    <t>Gajar Halwa 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Gulab Jamun 1 piece (50g)</t>
+  </si>
+  <si>
+    <t>Rasgulla 1 piece (50g)</t>
+  </si>
+  <si>
+    <t>Kheer (Rice Pudding) 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Lassi (Sweet) 1 glass (250ml)</t>
+  </si>
+  <si>
+    <t>Lassi (Salted) 1 glass (250ml)</t>
+  </si>
+  <si>
+    <t>Jalebi 1 piece (40g)</t>
+  </si>
+  <si>
+    <t>Mysore Pak 1 piece (50g)</t>
+  </si>
+  <si>
+    <t>Coconut Chutney Dosa 1 plate</t>
+  </si>
+  <si>
+    <t>Vegetable Sandwich 1 sandwich</t>
+  </si>
+  <si>
+    <t>Paneer Tikka 6 cubes (100g)</t>
+  </si>
+  <si>
+    <t>Moong Dal Chilla 1 piece</t>
+  </si>
+  <si>
+    <t>Rava Kesari 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Ragi Mudde 1 ball (200g)</t>
+  </si>
+  <si>
+    <t>Neer Dosa 1 dosa</t>
+  </si>
+  <si>
+    <t>Appam with Stew 1 appam + stew</t>
+  </si>
+  <si>
+    <t>Puttu with Kadala Curry 1 plate</t>
+  </si>
+  <si>
+    <t>Avial 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Veg Kurma 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Khichdi 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Tamarind Rice 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Curd Rice 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Lemon Rice 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Tomato Rice 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Bisibele Bath 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Rasam Rice 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Rava Dosa 1 dosa</t>
+  </si>
+  <si>
+    <t>Vegetable Idiyappam 1 serving</t>
+  </si>
+  <si>
+    <t>Thali (South Indian Veg) 1 thali</t>
+  </si>
+  <si>
+    <t>Thali (North Indian Veg) 1 thali</t>
+  </si>
+  <si>
+    <t>Chicken Biryani 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Mutton Curry 1 cup (200g)</t>
+  </si>
+  <si>
+    <t>Fish Fry 1 piece (100g)</t>
+  </si>
+  <si>
+    <t>Egg Bhurji 1 serving</t>
+  </si>
+  <si>
+    <t>Chana Sundal 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Masala Papad 1 piece</t>
+  </si>
+  <si>
+    <t>Tomato Soup 1 cup (200ml)</t>
+  </si>
+  <si>
+    <t>Corn Soup 1 cup (200ml)</t>
+  </si>
+  <si>
+    <t>Vegetable Salad 1 cup (100g)</t>
+  </si>
+  <si>
+    <t>Fruit Chaat 1 cup (150g)</t>
+  </si>
+  <si>
+    <t>Walking (brisk)</t>
+  </si>
+  <si>
+    <t>Running (6 mph)</t>
+  </si>
+  <si>
+    <t>Running (8 mph)</t>
+  </si>
+  <si>
+    <t>Swimming (vigorous)</t>
+  </si>
+  <si>
+    <t>Jump rope (slow)</t>
+  </si>
+  <si>
+    <t>Jump rope (fast)</t>
+  </si>
+  <si>
+    <t>Power Yoga</t>
+  </si>
+  <si>
+    <t>Dancing (light)</t>
+  </si>
+  <si>
+    <t>Dancing (vigorous)</t>
+  </si>
+  <si>
+    <t>Weightlifting (light)</t>
+  </si>
+  <si>
+    <t>Weightlifting (heavy)</t>
+  </si>
+  <si>
+    <t>Climbing stairs</t>
+  </si>
+  <si>
+    <t>Aerobics (low impact)</t>
+  </si>
+  <si>
+    <t>Aerobics (high impact)</t>
+  </si>
+  <si>
+    <t>Martial arts</t>
+  </si>
+  <si>
+    <t>Rowing (moderate)</t>
+  </si>
+  <si>
+    <t>Rowing (vigorous)</t>
+  </si>
+  <si>
+    <t>Playing Badminton</t>
+  </si>
+  <si>
+    <t>Playing Tennis</t>
+  </si>
+  <si>
+    <t>Playing Cricket</t>
+  </si>
+  <si>
+    <t>Playing Football</t>
+  </si>
+  <si>
+    <t>Playing Basketball</t>
+  </si>
+  <si>
+    <t>Playing Volleyball</t>
+  </si>
+  <si>
+    <t>Playing Table Tennis</t>
+  </si>
+  <si>
+    <t>Elliptical Trainer</t>
+  </si>
+  <si>
+    <t>Stairmaster</t>
+  </si>
+  <si>
+    <t>Treadmill (walk)</t>
+  </si>
+  <si>
+    <t>Treadmill (run)</t>
+  </si>
+  <si>
+    <t>Stretching</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
+  <si>
+    <t>Calisthenics (light)</t>
+  </si>
+  <si>
+    <t>Calisthenics (vigorous)</t>
+  </si>
+  <si>
+    <t>House Cleaning</t>
+  </si>
+  <si>
+    <t>Sweeping</t>
+  </si>
+  <si>
+    <t>Washing clothes by hand</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Shopping (walking)</t>
+  </si>
+  <si>
+    <t>Playing Golf</t>
+  </si>
+  <si>
+    <t>Skating</t>
+  </si>
+  <si>
+    <t>Skiing</t>
+  </si>
+  <si>
+    <t>Snowboarding</t>
+  </si>
+  <si>
+    <t>Surfing</t>
+  </si>
+  <si>
+    <t>Scuba Diving</t>
+  </si>
+  <si>
+    <t>Rowing Machine</t>
+  </si>
+  <si>
+    <t>Stationary Bike (moderate)</t>
+  </si>
+  <si>
+    <t>Stationary Bike (intense)</t>
+  </si>
+  <si>
+    <t>Battle Ropes</t>
+  </si>
+  <si>
+    <t>Skipping</t>
+  </si>
+  <si>
+    <t>Climbing (rock indoor)</t>
+  </si>
+  <si>
+    <t>Climbing (rock outdoor)</t>
+  </si>
+  <si>
+    <t>Spinning</t>
+  </si>
+  <si>
+    <t>Paddle Boarding</t>
+  </si>
+  <si>
+    <t>Tai Chi</t>
+  </si>
+  <si>
+    <t>Step Aerobics</t>
+  </si>
+  <si>
+    <t>Aqua Aerobics</t>
+  </si>
+  <si>
+    <t>Hula Hoop</t>
+  </si>
+  <si>
+    <t>Salsa Dancing</t>
+  </si>
+  <si>
+    <t>Belly Dancing</t>
+  </si>
+  <si>
+    <t>Kettlebell Workout</t>
+  </si>
+  <si>
+    <t>Sledgehammer Workout</t>
+  </si>
+  <si>
+    <t>Resistance Band Workout</t>
+  </si>
+  <si>
+    <t>Powerlifting</t>
+  </si>
+  <si>
+    <t>Strongman Training</t>
+  </si>
+  <si>
+    <t>Gymnastics</t>
+  </si>
+  <si>
+    <t>Parkour</t>
+  </si>
+  <si>
+    <t>Handstand Practice</t>
+  </si>
+  <si>
+    <t>Pole Dancing</t>
+  </si>
+  <si>
+    <t>Animal Flow</t>
+  </si>
+  <si>
+    <t>TRX Training</t>
+  </si>
+  <si>
+    <t>Core Training</t>
+  </si>
+  <si>
+    <t>Stair Climbing Machine</t>
+  </si>
+  <si>
+    <t>Rowing Sprint</t>
+  </si>
+  <si>
+    <t>Resistance Circuit</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +3736,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3926,15 +3773,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -58319,8 +58163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -58330,497 +58174,497 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>1028</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>1029</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>1030</v>
+        <v>807</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>1031</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>1032</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>1033</v>
+        <v>810</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>1034</v>
+        <v>811</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>1035</v>
+        <v>812</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>1036</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>1037</v>
+        <v>814</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>1038</v>
+        <v>815</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>1039</v>
+        <v>816</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>1040</v>
+        <v>817</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>1041</v>
+        <v>818</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>1042</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>1043</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>1044</v>
+        <v>821</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>1045</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>1046</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>1047</v>
+        <v>824</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>1048</v>
+        <v>825</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>1049</v>
+        <v>826</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>1050</v>
+        <v>827</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>1051</v>
+        <v>828</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>1052</v>
+        <v>829</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>1053</v>
+        <v>830</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>1054</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>1055</v>
+        <v>832</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>1056</v>
+        <v>833</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>1057</v>
+        <v>834</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>1058</v>
+        <v>835</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>1059</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>1060</v>
+        <v>837</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>1061</v>
+        <v>838</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>1062</v>
+        <v>839</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>1063</v>
+        <v>840</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>1064</v>
+        <v>841</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>1065</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>1066</v>
+        <v>843</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>1067</v>
+        <v>844</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>1068</v>
+        <v>845</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>1069</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>1070</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>1071</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>1072</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>1073</v>
+        <v>850</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>1074</v>
+        <v>851</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>1075</v>
+        <v>852</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>1076</v>
+        <v>853</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>1077</v>
+        <v>854</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>1078</v>
+        <v>855</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>1079</v>
+        <v>856</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>1080</v>
+        <v>857</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>1081</v>
+        <v>858</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>1082</v>
+        <v>859</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>1083</v>
+        <v>860</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>1084</v>
+        <v>861</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>1085</v>
+        <v>862</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>1086</v>
+        <v>863</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>1087</v>
+        <v>864</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>1088</v>
+        <v>865</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>1089</v>
+        <v>866</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>1090</v>
+        <v>867</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" t="s">
-        <v>1091</v>
+        <v>868</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>1092</v>
+        <v>869</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>1093</v>
+        <v>870</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>1094</v>
+        <v>871</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" t="s">
-        <v>1095</v>
+        <v>872</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>1096</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" t="s">
-        <v>1097</v>
+        <v>874</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" t="s">
-        <v>1098</v>
+        <v>875</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>1099</v>
+        <v>876</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>1100</v>
+        <v>877</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>1101</v>
+        <v>878</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" t="s">
-        <v>1102</v>
+        <v>879</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>1103</v>
+        <v>880</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>1104</v>
+        <v>881</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>1105</v>
+        <v>882</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>1106</v>
+        <v>883</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>1107</v>
+        <v>884</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>1108</v>
+        <v>885</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>1109</v>
+        <v>886</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>1110</v>
+        <v>887</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>1111</v>
+        <v>888</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" t="s">
-        <v>1112</v>
+        <v>889</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" t="s">
-        <v>1113</v>
+        <v>890</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" t="s">
-        <v>1114</v>
+        <v>891</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" t="s">
-        <v>1115</v>
+        <v>892</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" t="s">
-        <v>1116</v>
+        <v>893</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" t="s">
-        <v>1117</v>
+        <v>894</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" t="s">
-        <v>1118</v>
+        <v>895</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" t="s">
-        <v>1119</v>
+        <v>896</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" t="s">
-        <v>1120</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" t="s">
-        <v>1121</v>
+        <v>898</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" t="s">
-        <v>1122</v>
+        <v>899</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" t="s">
-        <v>1123</v>
+        <v>900</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" t="s">
-        <v>1124</v>
+        <v>901</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" t="s">
-        <v>1125</v>
+        <v>902</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" t="s">
-        <v>1126</v>
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -58842,148 +58686,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.8">
-      <c r="A1" s="24" t="s">
-        <v>1137</v>
+      <c r="A1" s="20" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.8">
-      <c r="A2" s="24" t="s">
-        <v>1127</v>
+      <c r="A2" s="20" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
-      <c r="A3" s="24" t="s">
-        <v>1136</v>
+      <c r="A3" s="20" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
-      <c r="A4" s="24" t="s">
-        <v>1146</v>
+      <c r="A4" s="20" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.8">
-      <c r="A5" s="24" t="s">
-        <v>1129</v>
+      <c r="A5" s="20" t="s">
+        <v>906</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.8">
-      <c r="A6" s="24" t="s">
-        <v>1139</v>
+      <c r="A6" s="20" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="13.8">
-      <c r="A7" s="24" t="s">
-        <v>1143</v>
+      <c r="A7" s="20" t="s">
+        <v>920</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.8">
-      <c r="A8" s="24" t="s">
-        <v>1128</v>
+      <c r="A8" s="20" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8">
-      <c r="A9" s="24" t="s">
-        <v>1147</v>
+      <c r="A9" s="20" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8">
-      <c r="A10" s="24" t="s">
-        <v>1132</v>
+      <c r="A10" s="20" t="s">
+        <v>909</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="13.8">
-      <c r="A11" s="24" t="s">
-        <v>1142</v>
+      <c r="A11" s="20" t="s">
+        <v>919</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="13.8">
-      <c r="A12" s="24" t="s">
-        <v>1151</v>
+      <c r="A12" s="20" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="13.8">
-      <c r="A13" s="24" t="s">
-        <v>1148</v>
+      <c r="A13" s="20" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="13.8">
-      <c r="A14" s="24" t="s">
-        <v>1141</v>
+      <c r="A14" s="20" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="13.8">
-      <c r="A15" s="24" t="s">
-        <v>1144</v>
+      <c r="A15" s="20" t="s">
+        <v>921</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="13.8">
-      <c r="A16" s="24" t="s">
-        <v>1135</v>
+      <c r="A16" s="20" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.8">
-      <c r="A17" s="24" t="s">
-        <v>1131</v>
+      <c r="A17" s="20" t="s">
+        <v>908</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.8">
-      <c r="A18" s="24" t="s">
-        <v>1153</v>
+      <c r="A18" s="20" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.8">
-      <c r="A19" s="24" t="s">
-        <v>1154</v>
+      <c r="A19" s="20" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.8">
-      <c r="A20" s="24" t="s">
-        <v>1145</v>
+      <c r="A20" s="20" t="s">
+        <v>922</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.8">
-      <c r="A21" s="24" t="s">
-        <v>1149</v>
+      <c r="A21" s="20" t="s">
+        <v>926</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.8">
-      <c r="A22" s="24" t="s">
-        <v>1140</v>
+      <c r="A22" s="20" t="s">
+        <v>917</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.8">
-      <c r="A23" s="24" t="s">
-        <v>1150</v>
+      <c r="A23" s="20" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="13.8">
-      <c r="A24" s="24" t="s">
-        <v>1138</v>
+      <c r="A24" s="20" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="13.8">
-      <c r="A25" s="24" t="s">
-        <v>1130</v>
+      <c r="A25" s="20" t="s">
+        <v>907</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="13.8">
-      <c r="A26" s="24" t="s">
-        <v>1133</v>
+      <c r="A26" s="20" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="13.8">
-      <c r="A27" s="24" t="s">
-        <v>1155</v>
+      <c r="A27" s="20" t="s">
+        <v>932</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="13.8">
-      <c r="A28" s="24" t="s">
-        <v>1152</v>
+      <c r="A28" s="20" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="13.8">
-      <c r="A29" s="24" t="s">
-        <v>1134</v>
+      <c r="A29" s="20" t="s">
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -59334,128 +59178,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.8">
-      <c r="A1" s="23" t="s">
-        <v>1159</v>
+      <c r="A1" s="19" t="s">
+        <v>936</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.8">
-      <c r="A2" s="23" t="s">
-        <v>1166</v>
+      <c r="A2" s="19" t="s">
+        <v>943</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
-      <c r="A3" s="23" t="s">
-        <v>1177</v>
+      <c r="A3" s="19" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
-      <c r="A4" s="23" t="s">
-        <v>1178</v>
+      <c r="A4" s="19" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.8">
-      <c r="A5" s="23" t="s">
-        <v>1173</v>
+      <c r="A5" s="19" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.8">
-      <c r="A6" s="23" t="s">
-        <v>1168</v>
+      <c r="A6" s="19" t="s">
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="13.8">
-      <c r="A7" s="23" t="s">
-        <v>1174</v>
+      <c r="A7" s="19" t="s">
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.8">
-      <c r="A8" s="23" t="s">
-        <v>1169</v>
+      <c r="A8" s="19" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8">
-      <c r="A9" s="23" t="s">
-        <v>1179</v>
+      <c r="A9" s="19" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8">
-      <c r="A10" s="23" t="s">
-        <v>1172</v>
+      <c r="A10" s="19" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="13.8">
-      <c r="A11" s="23" t="s">
-        <v>1175</v>
+      <c r="A11" s="19" t="s">
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="13.8">
-      <c r="A12" s="23" t="s">
-        <v>1160</v>
+      <c r="A12" s="19" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="13.8">
-      <c r="A13" s="23" t="s">
-        <v>1158</v>
+      <c r="A13" s="19" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="13.8">
-      <c r="A14" s="23" t="s">
-        <v>1157</v>
+      <c r="A14" s="19" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="13.8">
-      <c r="A15" s="23" t="s">
-        <v>1163</v>
+      <c r="A15" s="19" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="13.8">
-      <c r="A16" s="23" t="s">
-        <v>1167</v>
+      <c r="A16" s="19" t="s">
+        <v>944</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.8">
-      <c r="A17" s="23" t="s">
-        <v>1180</v>
+      <c r="A17" s="19" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.8">
-      <c r="A18" s="23" t="s">
-        <v>1164</v>
+      <c r="A18" s="19" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.8">
-      <c r="A19" s="23" t="s">
-        <v>1161</v>
+      <c r="A19" s="19" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.8">
-      <c r="A20" s="23" t="s">
-        <v>1162</v>
+      <c r="A20" s="19" t="s">
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.8">
-      <c r="A21" s="23" t="s">
-        <v>1176</v>
+      <c r="A21" s="19" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.8">
-      <c r="A22" s="23" t="s">
-        <v>1156</v>
+      <c r="A22" s="19" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.8">
-      <c r="A23" s="23" t="s">
-        <v>1170</v>
+      <c r="A23" s="19" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="13.8">
-      <c r="A24" s="23" t="s">
-        <v>1171</v>
+      <c r="A24" s="19" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="13.8">
-      <c r="A25" s="23" t="s">
-        <v>1165</v>
+      <c r="A25" s="19" t="s">
+        <v>942</v>
       </c>
     </row>
   </sheetData>
@@ -59477,163 +59321,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="13.8">
-      <c r="A1" s="22" t="s">
-        <v>1181</v>
+      <c r="A1" s="18" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="13.8">
-      <c r="A2" s="22" t="s">
-        <v>1182</v>
+      <c r="A2" s="18" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="13.8">
-      <c r="A3" s="22" t="s">
-        <v>1183</v>
+      <c r="A3" s="18" t="s">
+        <v>960</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="13.8">
-      <c r="A4" s="22" t="s">
-        <v>1184</v>
+      <c r="A4" s="18" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="13.8">
-      <c r="A5" s="22" t="s">
-        <v>1185</v>
+      <c r="A5" s="18" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="13.8">
-      <c r="A6" s="22" t="s">
-        <v>1186</v>
+      <c r="A6" s="18" t="s">
+        <v>963</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="13.8">
-      <c r="A7" s="22" t="s">
-        <v>1187</v>
+      <c r="A7" s="18" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="13.8">
-      <c r="A8" s="22" t="s">
-        <v>1188</v>
+      <c r="A8" s="18" t="s">
+        <v>965</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="13.8">
-      <c r="A9" s="22" t="s">
-        <v>1189</v>
+      <c r="A9" s="18" t="s">
+        <v>966</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="13.8">
-      <c r="A10" s="22" t="s">
-        <v>1190</v>
+      <c r="A10" s="18" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="13.8">
-      <c r="A11" s="22" t="s">
-        <v>1191</v>
+      <c r="A11" s="18" t="s">
+        <v>968</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="13.8">
-      <c r="A12" s="22" t="s">
-        <v>1192</v>
+      <c r="A12" s="18" t="s">
+        <v>969</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="13.8">
-      <c r="A13" s="22" t="s">
-        <v>1193</v>
+      <c r="A13" s="18" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="13.8">
-      <c r="A14" s="22" t="s">
-        <v>1194</v>
+      <c r="A14" s="18" t="s">
+        <v>971</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="13.8">
-      <c r="A15" s="22" t="s">
-        <v>1195</v>
+      <c r="A15" s="18" t="s">
+        <v>972</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="13.8">
-      <c r="A16" s="22" t="s">
-        <v>1196</v>
+      <c r="A16" s="18" t="s">
+        <v>973</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="13.8">
-      <c r="A17" s="22" t="s">
-        <v>1197</v>
+      <c r="A17" s="18" t="s">
+        <v>974</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="13.8">
-      <c r="A18" s="22" t="s">
-        <v>1198</v>
+      <c r="A18" s="18" t="s">
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="13.8">
-      <c r="A19" s="22" t="s">
-        <v>1199</v>
+      <c r="A19" s="18" t="s">
+        <v>976</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="13.8">
-      <c r="A20" s="22" t="s">
-        <v>1200</v>
+      <c r="A20" s="18" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="13.8">
-      <c r="A21" s="22" t="s">
-        <v>1201</v>
+      <c r="A21" s="18" t="s">
+        <v>978</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="13.8">
-      <c r="A22" s="22" t="s">
-        <v>1202</v>
+      <c r="A22" s="18" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="13.8">
-      <c r="A23" s="22" t="s">
-        <v>1203</v>
+      <c r="A23" s="18" t="s">
+        <v>980</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="13.8">
-      <c r="A24" s="22" t="s">
-        <v>1204</v>
+      <c r="A24" s="18" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="13.8">
-      <c r="A25" s="22" t="s">
-        <v>1205</v>
+      <c r="A25" s="18" t="s">
+        <v>982</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="13.8">
-      <c r="A26" s="22" t="s">
-        <v>1206</v>
+      <c r="A26" s="18" t="s">
+        <v>983</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="13.8">
-      <c r="A27" s="22" t="s">
-        <v>1207</v>
+      <c r="A27" s="18" t="s">
+        <v>984</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="13.8">
-      <c r="A28" s="22" t="s">
-        <v>1208</v>
+      <c r="A28" s="18" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="13.8">
-      <c r="A29" s="22" t="s">
-        <v>1209</v>
+      <c r="A29" s="18" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="13.8">
-      <c r="A30" s="22" t="s">
-        <v>1210</v>
+      <c r="A30" s="18" t="s">
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="13.8">
-      <c r="A31" s="22" t="s">
-        <v>1211</v>
+      <c r="A31" s="18" t="s">
+        <v>988</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="13.8">
-      <c r="A32" s="22" t="s">
-        <v>1212</v>
+      <c r="A32" s="18" t="s">
+        <v>989</v>
       </c>
     </row>
   </sheetData>
@@ -60113,1493 +59957,1149 @@
   <dimension ref="A1:B185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8">
       <c r="A1" s="16" t="s">
-        <v>777</v>
-      </c>
-      <c r="B1" s="17">
-        <v>176</v>
+        <v>990</v>
+      </c>
+      <c r="B1">
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="13.8">
       <c r="A2" s="16" t="s">
-        <v>778</v>
-      </c>
-      <c r="B2" s="17">
-        <v>254</v>
+        <v>991</v>
+      </c>
+      <c r="B2">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.8">
       <c r="A3" s="16" t="s">
-        <v>779</v>
-      </c>
-      <c r="B3" s="17">
-        <v>133</v>
+        <v>992</v>
+      </c>
+      <c r="B3">
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.8">
       <c r="A4" s="16" t="s">
-        <v>780</v>
-      </c>
-      <c r="B4" s="17">
-        <v>366</v>
+        <v>993</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.8">
       <c r="A5" s="16" t="s">
-        <v>781</v>
-      </c>
-      <c r="B5" s="17">
-        <v>372</v>
+        <v>994</v>
+      </c>
+      <c r="B5">
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="13.8">
       <c r="A6" s="16" t="s">
-        <v>782</v>
-      </c>
-      <c r="B6" s="17">
-        <v>139</v>
+        <v>995</v>
+      </c>
+      <c r="B6">
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="13.8">
       <c r="A7" s="16" t="s">
-        <v>783</v>
-      </c>
-      <c r="B7" s="17">
-        <v>79</v>
+        <v>996</v>
+      </c>
+      <c r="B7">
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="13.8">
       <c r="A8" s="16" t="s">
-        <v>784</v>
-      </c>
-      <c r="B8" s="17">
-        <v>264</v>
+        <v>997</v>
+      </c>
+      <c r="B8">
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="13.8">
       <c r="A9" s="16" t="s">
-        <v>785</v>
-      </c>
-      <c r="B9" s="17">
-        <v>323</v>
+        <v>998</v>
+      </c>
+      <c r="B9">
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="13.8">
       <c r="A10" s="16" t="s">
-        <v>786</v>
-      </c>
-      <c r="B10" s="17">
-        <v>157</v>
+        <v>999</v>
+      </c>
+      <c r="B10">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="13.8">
       <c r="A11" s="16" t="s">
-        <v>787</v>
-      </c>
-      <c r="B11" s="17">
-        <v>161</v>
+        <v>1000</v>
+      </c>
+      <c r="B11">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="13.8">
       <c r="A12" s="16" t="s">
-        <v>788</v>
-      </c>
-      <c r="B12" s="17">
-        <v>55</v>
+        <v>1001</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="13.8">
       <c r="A13" s="16" t="s">
-        <v>789</v>
-      </c>
-      <c r="B13" s="17">
-        <v>139</v>
+        <v>1002</v>
+      </c>
+      <c r="B13">
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="13.8">
       <c r="A14" s="16" t="s">
-        <v>790</v>
-      </c>
-      <c r="B14" s="17">
-        <v>83</v>
+        <v>1003</v>
+      </c>
+      <c r="B14">
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="13.8">
       <c r="A15" s="16" t="s">
-        <v>791</v>
-      </c>
-      <c r="B15" s="17">
-        <v>137</v>
+        <v>1004</v>
+      </c>
+      <c r="B15">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="13.8">
       <c r="A16" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="B16" s="17">
-        <v>200</v>
+        <v>1005</v>
+      </c>
+      <c r="B16">
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="13.8">
       <c r="A17" s="16" t="s">
-        <v>793</v>
-      </c>
-      <c r="B17" s="17">
-        <v>149</v>
+        <v>1006</v>
+      </c>
+      <c r="B17">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="13.8">
       <c r="A18" s="16" t="s">
-        <v>794</v>
-      </c>
-      <c r="B18" s="17">
-        <v>335</v>
+        <v>1007</v>
+      </c>
+      <c r="B18">
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="13.8">
       <c r="A19" s="16" t="s">
-        <v>795</v>
-      </c>
-      <c r="B19" s="17">
-        <v>352</v>
+        <v>1008</v>
+      </c>
+      <c r="B19">
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="13.8">
       <c r="A20" s="16" t="s">
-        <v>796</v>
-      </c>
-      <c r="B20" s="17">
-        <v>205</v>
+        <v>1009</v>
+      </c>
+      <c r="B20">
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="13.8">
       <c r="A21" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="B21" s="17">
-        <v>225</v>
+        <v>1010</v>
+      </c>
+      <c r="B21">
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="13.8">
       <c r="A22" s="16" t="s">
-        <v>798</v>
-      </c>
-      <c r="B22" s="17">
-        <v>122</v>
+        <v>1011</v>
+      </c>
+      <c r="B22">
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="13.8">
       <c r="A23" s="16" t="s">
-        <v>799</v>
-      </c>
-      <c r="B23" s="17">
-        <v>295</v>
+        <v>1012</v>
+      </c>
+      <c r="B23">
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="13.8">
       <c r="A24" s="16" t="s">
-        <v>800</v>
-      </c>
-      <c r="B24" s="17">
-        <v>343</v>
+        <v>1013</v>
+      </c>
+      <c r="B24">
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="13.8">
       <c r="A25" s="16" t="s">
-        <v>801</v>
-      </c>
-      <c r="B25" s="17">
-        <v>212</v>
+        <v>1014</v>
+      </c>
+      <c r="B25">
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="13.8">
       <c r="A26" s="16" t="s">
-        <v>802</v>
-      </c>
-      <c r="B26" s="17">
-        <v>188</v>
+        <v>1015</v>
+      </c>
+      <c r="B26">
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="13.8">
       <c r="A27" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="B27" s="17">
-        <v>261</v>
+        <v>1016</v>
+      </c>
+      <c r="B27">
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="13.8">
       <c r="A28" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="B28" s="17">
-        <v>199</v>
+        <v>1017</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="13.8">
       <c r="A29" s="16" t="s">
-        <v>805</v>
-      </c>
-      <c r="B29" s="17">
-        <v>187</v>
+        <v>1018</v>
+      </c>
+      <c r="B29">
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="13.8">
       <c r="A30" s="16" t="s">
-        <v>806</v>
-      </c>
-      <c r="B30" s="17">
-        <v>205</v>
+        <v>1019</v>
+      </c>
+      <c r="B30">
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="13.8">
       <c r="A31" s="16" t="s">
-        <v>807</v>
-      </c>
-      <c r="B31" s="17">
-        <v>188</v>
+        <v>1020</v>
+      </c>
+      <c r="B31">
+        <v>450</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="13.8">
       <c r="A32" s="16" t="s">
-        <v>808</v>
-      </c>
-      <c r="B32" s="17">
-        <v>206</v>
+        <v>1021</v>
+      </c>
+      <c r="B32">
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="13.8">
       <c r="A33" s="16" t="s">
-        <v>809</v>
-      </c>
-      <c r="B33" s="17">
-        <v>348</v>
+        <v>1022</v>
+      </c>
+      <c r="B33">
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="13.8">
       <c r="A34" s="16" t="s">
-        <v>810</v>
-      </c>
-      <c r="B34" s="17">
-        <v>63</v>
+        <v>1023</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="13.8">
       <c r="A35" s="16" t="s">
-        <v>811</v>
-      </c>
-      <c r="B35" s="17">
-        <v>378</v>
+        <v>1024</v>
+      </c>
+      <c r="B35">
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="13.8">
       <c r="A36" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="B36" s="17">
-        <v>381</v>
+        <v>1025</v>
+      </c>
+      <c r="B36">
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="13.8">
       <c r="A37" s="16" t="s">
-        <v>813</v>
-      </c>
-      <c r="B37" s="17">
-        <v>266</v>
+        <v>1026</v>
+      </c>
+      <c r="B37">
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="13.8">
       <c r="A38" s="16" t="s">
-        <v>814</v>
-      </c>
-      <c r="B38" s="17">
-        <v>260</v>
+        <v>1027</v>
+      </c>
+      <c r="B38">
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="13.8">
       <c r="A39" s="16" t="s">
-        <v>815</v>
-      </c>
-      <c r="B39" s="17">
-        <v>346</v>
+        <v>1028</v>
+      </c>
+      <c r="B39">
+        <v>400</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="13.8">
       <c r="A40" s="16" t="s">
-        <v>816</v>
-      </c>
-      <c r="B40" s="17">
-        <v>61</v>
+        <v>1029</v>
+      </c>
+      <c r="B40">
+        <v>450</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="13.8">
       <c r="A41" s="16" t="s">
-        <v>817</v>
-      </c>
-      <c r="B41" s="17">
-        <v>252</v>
+        <v>1030</v>
+      </c>
+      <c r="B41">
+        <v>300</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="13.8">
       <c r="A42" s="16" t="s">
-        <v>818</v>
-      </c>
-      <c r="B42" s="17">
-        <v>274</v>
+        <v>1031</v>
+      </c>
+      <c r="B42">
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="13.8">
       <c r="A43" s="16" t="s">
-        <v>819</v>
-      </c>
-      <c r="B43" s="17">
-        <v>197</v>
+        <v>1032</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="13.8">
       <c r="A44" s="16" t="s">
-        <v>820</v>
-      </c>
-      <c r="B44" s="17">
-        <v>249</v>
+        <v>1033</v>
+      </c>
+      <c r="B44">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="13.8">
       <c r="A45" s="16" t="s">
-        <v>821</v>
-      </c>
-      <c r="B45" s="17">
-        <v>276</v>
+        <v>1034</v>
+      </c>
+      <c r="B45">
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="13.8">
       <c r="A46" s="16" t="s">
-        <v>822</v>
-      </c>
-      <c r="B46" s="17">
-        <v>376</v>
+        <v>1035</v>
+      </c>
+      <c r="B46">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="13.8">
       <c r="A47" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="B47" s="17">
-        <v>314</v>
+        <v>1036</v>
+      </c>
+      <c r="B47">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="13.8">
       <c r="A48" s="16" t="s">
-        <v>824</v>
-      </c>
-      <c r="B48" s="17">
-        <v>295</v>
+        <v>1037</v>
+      </c>
+      <c r="B48">
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="13.8">
       <c r="A49" s="16" t="s">
-        <v>825</v>
-      </c>
-      <c r="B49" s="17">
-        <v>353</v>
+        <v>1038</v>
+      </c>
+      <c r="B49">
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.8">
       <c r="A50" s="16" t="s">
-        <v>826</v>
-      </c>
-      <c r="B50" s="17">
-        <v>280</v>
+        <v>1039</v>
+      </c>
+      <c r="B50">
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="13.8">
       <c r="A51" s="16" t="s">
-        <v>827</v>
-      </c>
-      <c r="B51" s="17">
-        <v>283</v>
+        <v>1040</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="13.8">
       <c r="A52" s="16" t="s">
-        <v>828</v>
-      </c>
-      <c r="B52" s="17">
-        <v>279</v>
+        <v>1041</v>
+      </c>
+      <c r="B52">
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="13.8">
       <c r="A53" s="16" t="s">
-        <v>829</v>
-      </c>
-      <c r="B53" s="17">
-        <v>339</v>
+        <v>1042</v>
+      </c>
+      <c r="B53">
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="13.8">
       <c r="A54" s="16" t="s">
-        <v>830</v>
-      </c>
-      <c r="B54" s="17">
-        <v>400</v>
+        <v>1043</v>
+      </c>
+      <c r="B54">
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="13.8">
       <c r="A55" s="16" t="s">
-        <v>831</v>
-      </c>
-      <c r="B55" s="17">
-        <v>311</v>
+        <v>1044</v>
+      </c>
+      <c r="B55">
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="13.8">
       <c r="A56" s="16" t="s">
-        <v>832</v>
-      </c>
-      <c r="B56" s="17">
-        <v>239</v>
+        <v>1045</v>
+      </c>
+      <c r="B56">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="13.8">
       <c r="A57" s="16" t="s">
-        <v>833</v>
-      </c>
-      <c r="B57" s="17">
-        <v>305</v>
+        <v>1046</v>
+      </c>
+      <c r="B57">
+        <v>400</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="13.8">
       <c r="A58" s="16" t="s">
-        <v>834</v>
-      </c>
-      <c r="B58" s="17">
-        <v>319</v>
+        <v>1047</v>
+      </c>
+      <c r="B58">
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="13.8">
       <c r="A59" s="16" t="s">
-        <v>835</v>
-      </c>
-      <c r="B59" s="17">
-        <v>348</v>
+        <v>1048</v>
+      </c>
+      <c r="B59">
+        <v>300</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="13.8">
       <c r="A60" s="16" t="s">
-        <v>836</v>
-      </c>
-      <c r="B60" s="17">
-        <v>174</v>
+        <v>1049</v>
+      </c>
+      <c r="B60">
+        <v>350</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="13.8">
       <c r="A61" s="16" t="s">
-        <v>837</v>
-      </c>
-      <c r="B61" s="17">
-        <v>346</v>
+        <v>1050</v>
+      </c>
+      <c r="B61">
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="13.8">
       <c r="A62" s="16" t="s">
-        <v>838</v>
-      </c>
-      <c r="B62" s="17">
-        <v>170</v>
+        <v>1051</v>
+      </c>
+      <c r="B62">
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="13.8">
       <c r="A63" s="16" t="s">
-        <v>839</v>
-      </c>
-      <c r="B63" s="17">
-        <v>278</v>
+        <v>1052</v>
+      </c>
+      <c r="B63">
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="13.8">
       <c r="A64" s="16" t="s">
-        <v>840</v>
-      </c>
-      <c r="B64" s="17">
-        <v>253</v>
+        <v>1053</v>
+      </c>
+      <c r="B64">
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="13.8">
       <c r="A65" s="16" t="s">
-        <v>841</v>
-      </c>
-      <c r="B65" s="17">
-        <v>167</v>
+        <v>1054</v>
+      </c>
+      <c r="B65">
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="13.8">
       <c r="A66" s="16" t="s">
-        <v>842</v>
-      </c>
-      <c r="B66" s="17">
-        <v>235</v>
+        <v>1055</v>
+      </c>
+      <c r="B66">
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="13.8">
       <c r="A67" s="16" t="s">
-        <v>843</v>
-      </c>
-      <c r="B67" s="17">
-        <v>397</v>
+        <v>1056</v>
+      </c>
+      <c r="B67">
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="13.8">
       <c r="A68" s="16" t="s">
-        <v>844</v>
-      </c>
-      <c r="B68" s="17">
-        <v>157</v>
+        <v>1057</v>
+      </c>
+      <c r="B68">
+        <v>300</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="13.8">
       <c r="A69" s="16" t="s">
-        <v>845</v>
-      </c>
-      <c r="B69" s="17">
-        <v>292</v>
+        <v>1058</v>
+      </c>
+      <c r="B69">
+        <v>250</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="13.8">
       <c r="A70" s="16" t="s">
-        <v>846</v>
-      </c>
-      <c r="B70" s="17">
-        <v>61</v>
+        <v>1059</v>
+      </c>
+      <c r="B70">
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="13.8">
       <c r="A71" s="16" t="s">
-        <v>847</v>
-      </c>
-      <c r="B71" s="17">
-        <v>99</v>
+        <v>1060</v>
+      </c>
+      <c r="B71">
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="13.8">
       <c r="A72" s="16" t="s">
-        <v>848</v>
-      </c>
-      <c r="B72" s="17">
-        <v>97</v>
+        <v>1061</v>
+      </c>
+      <c r="B72">
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="13.8">
       <c r="A73" s="16" t="s">
-        <v>849</v>
-      </c>
-      <c r="B73" s="17">
-        <v>83</v>
+        <v>1062</v>
+      </c>
+      <c r="B73">
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="13.8">
       <c r="A74" s="16" t="s">
-        <v>850</v>
-      </c>
-      <c r="B74" s="17">
-        <v>378</v>
+        <v>1063</v>
+      </c>
+      <c r="B74">
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="13.8">
       <c r="A75" s="16" t="s">
-        <v>851</v>
-      </c>
-      <c r="B75" s="17">
-        <v>352</v>
+        <v>1064</v>
+      </c>
+      <c r="B75">
+        <v>300</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="13.8">
       <c r="A76" s="16" t="s">
-        <v>852</v>
-      </c>
-      <c r="B76" s="17">
-        <v>82</v>
+        <v>1065</v>
+      </c>
+      <c r="B76">
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="13.8">
       <c r="A77" s="16" t="s">
-        <v>853</v>
-      </c>
-      <c r="B77" s="17">
-        <v>368</v>
+        <v>1066</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="13.8">
       <c r="A78" s="16" t="s">
-        <v>854</v>
-      </c>
-      <c r="B78" s="17">
-        <v>289</v>
+        <v>1067</v>
+      </c>
+      <c r="B78">
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="13.8">
       <c r="A79" s="16" t="s">
-        <v>855</v>
-      </c>
-      <c r="B79" s="17">
-        <v>268</v>
+        <v>1068</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="13.8">
       <c r="A80" s="16" t="s">
-        <v>856</v>
-      </c>
-      <c r="B80" s="17">
-        <v>312</v>
+        <v>1069</v>
+      </c>
+      <c r="B80">
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="13.8">
       <c r="A81" s="16" t="s">
-        <v>857</v>
-      </c>
-      <c r="B81" s="17">
-        <v>308</v>
+        <v>1070</v>
+      </c>
+      <c r="B81">
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="13.8">
       <c r="A82" s="16" t="s">
-        <v>858</v>
-      </c>
-      <c r="B82" s="17">
-        <v>134</v>
+        <v>1071</v>
+      </c>
+      <c r="B82">
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="13.8">
       <c r="A83" s="16" t="s">
-        <v>859</v>
-      </c>
-      <c r="B83" s="17">
-        <v>111</v>
+        <v>1072</v>
+      </c>
+      <c r="B83">
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="13.8">
       <c r="A84" s="16" t="s">
-        <v>860</v>
-      </c>
-      <c r="B84" s="17">
-        <v>267</v>
+        <v>1073</v>
+      </c>
+      <c r="B84">
+        <v>300</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="13.8">
       <c r="A85" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="B85" s="17">
-        <v>194</v>
+        <v>1074</v>
+      </c>
+      <c r="B85">
+        <v>180</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="13.8">
       <c r="A86" s="16" t="s">
-        <v>862</v>
-      </c>
-      <c r="B86" s="17">
-        <v>362</v>
+        <v>1075</v>
+      </c>
+      <c r="B86">
+        <v>180</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="13.8">
       <c r="A87" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="B87" s="17">
-        <v>381</v>
+        <v>1076</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="13.8">
       <c r="A88" s="16" t="s">
-        <v>864</v>
-      </c>
-      <c r="B88" s="17">
-        <v>116</v>
+        <v>1077</v>
+      </c>
+      <c r="B88">
+        <v>900</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="13.8">
       <c r="A89" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="B89" s="17">
-        <v>287</v>
+        <v>1078</v>
+      </c>
+      <c r="B89">
+        <v>1000</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="13.8">
       <c r="A90" s="16" t="s">
-        <v>866</v>
-      </c>
-      <c r="B90" s="17">
-        <v>299</v>
+        <v>1079</v>
+      </c>
+      <c r="B90">
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="13.8">
       <c r="A91" s="16" t="s">
-        <v>867</v>
-      </c>
-      <c r="B91" s="17">
-        <v>290</v>
+        <v>1080</v>
+      </c>
+      <c r="B91">
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="13.8">
       <c r="A92" s="16" t="s">
-        <v>868</v>
-      </c>
-      <c r="B92" s="17">
-        <v>354</v>
+        <v>1081</v>
+      </c>
+      <c r="B92">
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="13.8">
       <c r="A93" s="16" t="s">
-        <v>869</v>
-      </c>
-      <c r="B93" s="17">
-        <v>357</v>
+        <v>1082</v>
+      </c>
+      <c r="B93">
+        <v>180</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="13.8">
       <c r="A94" s="16" t="s">
-        <v>870</v>
-      </c>
-      <c r="B94" s="17">
-        <v>227</v>
+        <v>1083</v>
+      </c>
+      <c r="B94">
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="13.8">
       <c r="A95" s="16" t="s">
-        <v>871</v>
-      </c>
-      <c r="B95" s="17">
-        <v>343</v>
+        <v>1084</v>
+      </c>
+      <c r="B95">
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="13.8">
       <c r="A96" s="16" t="s">
-        <v>872</v>
-      </c>
-      <c r="B96" s="17">
-        <v>156</v>
+        <v>1085</v>
+      </c>
+      <c r="B96">
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="13.8">
       <c r="A97" s="16" t="s">
-        <v>873</v>
-      </c>
-      <c r="B97" s="17">
-        <v>57</v>
+        <v>1086</v>
+      </c>
+      <c r="B97">
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="13.8">
       <c r="A98" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="B98" s="17">
-        <v>301</v>
+        <v>1087</v>
+      </c>
+      <c r="B98">
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="13.8">
       <c r="A99" s="16" t="s">
-        <v>875</v>
-      </c>
-      <c r="B99" s="17">
-        <v>268</v>
+        <v>1088</v>
+      </c>
+      <c r="B99">
+        <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="13.8">
-      <c r="A100" s="16" t="s">
-        <v>876</v>
-      </c>
-      <c r="B100" s="17">
-        <v>376</v>
-      </c>
+      <c r="A100" s="16"/>
+      <c r="B100" s="17"/>
     </row>
     <row r="101" spans="1:2" ht="13.8">
-      <c r="A101" s="16" t="s">
-        <v>877</v>
-      </c>
-      <c r="B101" s="17">
-        <v>216</v>
-      </c>
+      <c r="A101" s="16"/>
+      <c r="B101" s="17"/>
     </row>
     <row r="102" spans="1:2" ht="13.8">
-      <c r="A102" s="16" t="s">
-        <v>878</v>
-      </c>
-      <c r="B102" s="17">
-        <v>211</v>
-      </c>
+      <c r="A102" s="16"/>
+      <c r="B102" s="17"/>
     </row>
     <row r="103" spans="1:2" ht="13.8">
-      <c r="A103" s="16" t="s">
-        <v>879</v>
-      </c>
-      <c r="B103" s="17">
-        <v>172</v>
-      </c>
+      <c r="A103" s="16"/>
+      <c r="B103" s="17"/>
     </row>
     <row r="104" spans="1:2" ht="13.8">
-      <c r="A104" s="16" t="s">
-        <v>880</v>
-      </c>
-      <c r="B104" s="17">
-        <v>103</v>
-      </c>
+      <c r="A104" s="16"/>
+      <c r="B104" s="17"/>
     </row>
     <row r="105" spans="1:2" ht="13.8">
-      <c r="A105" s="16" t="s">
-        <v>881</v>
-      </c>
-      <c r="B105" s="17">
-        <v>197</v>
-      </c>
+      <c r="A105" s="16"/>
+      <c r="B105" s="17"/>
     </row>
     <row r="106" spans="1:2" ht="13.8">
-      <c r="A106" s="16" t="s">
-        <v>882</v>
-      </c>
-      <c r="B106" s="17">
-        <v>83</v>
-      </c>
+      <c r="A106" s="16"/>
+      <c r="B106" s="17"/>
     </row>
     <row r="107" spans="1:2" ht="13.8">
-      <c r="A107" s="16" t="s">
-        <v>883</v>
-      </c>
-      <c r="B107" s="17">
-        <v>127</v>
-      </c>
+      <c r="A107" s="16"/>
+      <c r="B107" s="17"/>
     </row>
     <row r="108" spans="1:2" ht="13.8">
-      <c r="A108" s="16" t="s">
-        <v>884</v>
-      </c>
-      <c r="B108" s="17">
-        <v>67</v>
-      </c>
+      <c r="A108" s="16"/>
+      <c r="B108" s="17"/>
     </row>
     <row r="109" spans="1:2" ht="13.8">
-      <c r="A109" s="16" t="s">
-        <v>885</v>
-      </c>
-      <c r="B109" s="17">
-        <v>187</v>
-      </c>
+      <c r="A109" s="16"/>
+      <c r="B109" s="17"/>
     </row>
     <row r="110" spans="1:2" ht="13.8">
-      <c r="A110" s="16" t="s">
-        <v>886</v>
-      </c>
-      <c r="B110" s="17">
-        <v>101</v>
-      </c>
+      <c r="A110" s="16"/>
+      <c r="B110" s="17"/>
     </row>
     <row r="111" spans="1:2" ht="13.8">
-      <c r="A111" s="16" t="s">
-        <v>887</v>
-      </c>
-      <c r="B111" s="17">
-        <v>186</v>
-      </c>
+      <c r="A111" s="16"/>
+      <c r="B111" s="17"/>
     </row>
     <row r="112" spans="1:2" ht="13.8">
-      <c r="A112" s="16" t="s">
-        <v>888</v>
-      </c>
-      <c r="B112" s="17">
-        <v>79</v>
-      </c>
+      <c r="A112" s="16"/>
+      <c r="B112" s="17"/>
     </row>
     <row r="113" spans="1:2" ht="13.8">
-      <c r="A113" s="16" t="s">
-        <v>889</v>
-      </c>
-      <c r="B113" s="17">
-        <v>215</v>
-      </c>
+      <c r="A113" s="16"/>
+      <c r="B113" s="17"/>
     </row>
     <row r="114" spans="1:2" ht="13.8">
-      <c r="A114" s="16" t="s">
-        <v>890</v>
-      </c>
-      <c r="B114" s="17">
-        <v>123</v>
-      </c>
+      <c r="A114" s="16"/>
+      <c r="B114" s="17"/>
     </row>
     <row r="115" spans="1:2" ht="13.8">
-      <c r="A115" s="16" t="s">
-        <v>891</v>
-      </c>
-      <c r="B115" s="17">
-        <v>238</v>
-      </c>
+      <c r="A115" s="16"/>
+      <c r="B115" s="17"/>
     </row>
     <row r="116" spans="1:2" ht="13.8">
-      <c r="A116" s="16" t="s">
-        <v>892</v>
-      </c>
-      <c r="B116" s="17">
-        <v>54</v>
-      </c>
+      <c r="A116" s="16"/>
+      <c r="B116" s="17"/>
     </row>
     <row r="117" spans="1:2" ht="13.8">
-      <c r="A117" s="16" t="s">
-        <v>893</v>
-      </c>
-      <c r="B117" s="17">
-        <v>396</v>
-      </c>
+      <c r="A117" s="16"/>
+      <c r="B117" s="17"/>
     </row>
     <row r="118" spans="1:2" ht="13.8">
-      <c r="A118" s="16" t="s">
-        <v>894</v>
-      </c>
-      <c r="B118" s="17">
-        <v>207</v>
-      </c>
+      <c r="A118" s="16"/>
+      <c r="B118" s="17"/>
     </row>
     <row r="119" spans="1:2" ht="13.8">
-      <c r="A119" s="16" t="s">
-        <v>895</v>
-      </c>
-      <c r="B119" s="17">
-        <v>293</v>
-      </c>
+      <c r="A119" s="16"/>
+      <c r="B119" s="17"/>
     </row>
     <row r="120" spans="1:2" ht="13.8">
-      <c r="A120" s="16" t="s">
-        <v>896</v>
-      </c>
-      <c r="B120" s="17">
-        <v>309</v>
-      </c>
+      <c r="A120" s="16"/>
+      <c r="B120" s="17"/>
     </row>
     <row r="121" spans="1:2" ht="13.8">
-      <c r="A121" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="B121" s="17">
-        <v>109</v>
-      </c>
+      <c r="A121" s="16"/>
+      <c r="B121" s="17"/>
     </row>
     <row r="122" spans="1:2" ht="13.8">
-      <c r="A122" s="16" t="s">
-        <v>898</v>
-      </c>
-      <c r="B122" s="17">
-        <v>157</v>
-      </c>
+      <c r="A122" s="16"/>
+      <c r="B122" s="17"/>
     </row>
     <row r="123" spans="1:2" ht="13.8">
-      <c r="A123" s="16" t="s">
-        <v>899</v>
-      </c>
-      <c r="B123" s="17">
-        <v>240</v>
-      </c>
+      <c r="A123" s="16"/>
+      <c r="B123" s="17"/>
     </row>
     <row r="124" spans="1:2" ht="13.8">
-      <c r="A124" s="16" t="s">
-        <v>900</v>
-      </c>
-      <c r="B124" s="17">
-        <v>278</v>
-      </c>
+      <c r="A124" s="16"/>
+      <c r="B124" s="17"/>
     </row>
     <row r="125" spans="1:2" ht="13.8">
-      <c r="A125" s="16" t="s">
-        <v>901</v>
-      </c>
-      <c r="B125" s="17">
-        <v>270</v>
-      </c>
+      <c r="A125" s="16"/>
+      <c r="B125" s="17"/>
     </row>
     <row r="126" spans="1:2" ht="13.8">
-      <c r="A126" s="16" t="s">
-        <v>902</v>
-      </c>
-      <c r="B126" s="17">
-        <v>96</v>
-      </c>
+      <c r="A126" s="16"/>
+      <c r="B126" s="17"/>
     </row>
     <row r="127" spans="1:2" ht="13.8">
-      <c r="A127" s="16" t="s">
-        <v>903</v>
-      </c>
-      <c r="B127" s="17">
-        <v>249</v>
-      </c>
+      <c r="A127" s="16"/>
+      <c r="B127" s="17"/>
     </row>
     <row r="128" spans="1:2" ht="13.8">
-      <c r="A128" s="16" t="s">
-        <v>904</v>
-      </c>
-      <c r="B128" s="17">
-        <v>168</v>
-      </c>
+      <c r="A128" s="16"/>
+      <c r="B128" s="17"/>
     </row>
     <row r="129" spans="1:2" ht="13.8">
-      <c r="A129" s="16" t="s">
-        <v>905</v>
-      </c>
-      <c r="B129" s="17">
-        <v>249</v>
-      </c>
+      <c r="A129" s="16"/>
+      <c r="B129" s="17"/>
     </row>
     <row r="130" spans="1:2" ht="13.8">
-      <c r="A130" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="B130" s="17">
-        <v>395</v>
-      </c>
+      <c r="A130" s="16"/>
+      <c r="B130" s="17"/>
     </row>
     <row r="131" spans="1:2" ht="13.8">
-      <c r="A131" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="B131" s="17">
-        <v>303</v>
-      </c>
+      <c r="A131" s="16"/>
+      <c r="B131" s="17"/>
     </row>
     <row r="132" spans="1:2" ht="13.8">
-      <c r="A132" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="B132" s="17">
-        <v>370</v>
-      </c>
+      <c r="A132" s="16"/>
+      <c r="B132" s="17"/>
     </row>
     <row r="133" spans="1:2" ht="13.8">
-      <c r="A133" s="16" t="s">
-        <v>909</v>
-      </c>
-      <c r="B133" s="17">
-        <v>276</v>
-      </c>
+      <c r="A133" s="16"/>
+      <c r="B133" s="17"/>
     </row>
     <row r="134" spans="1:2" ht="13.8">
-      <c r="A134" s="16" t="s">
-        <v>910</v>
-      </c>
-      <c r="B134" s="17">
-        <v>302</v>
-      </c>
+      <c r="A134" s="16"/>
+      <c r="B134" s="17"/>
     </row>
     <row r="135" spans="1:2" ht="13.8">
-      <c r="A135" s="16" t="s">
-        <v>911</v>
-      </c>
-      <c r="B135" s="17">
-        <v>133</v>
-      </c>
+      <c r="A135" s="16"/>
+      <c r="B135" s="17"/>
     </row>
     <row r="136" spans="1:2" ht="13.8">
-      <c r="A136" s="16" t="s">
-        <v>912</v>
-      </c>
-      <c r="B136" s="17">
-        <v>373</v>
-      </c>
+      <c r="A136" s="16"/>
+      <c r="B136" s="17"/>
     </row>
     <row r="137" spans="1:2" ht="13.8">
-      <c r="A137" s="16" t="s">
-        <v>913</v>
-      </c>
-      <c r="B137" s="17">
-        <v>187</v>
-      </c>
+      <c r="A137" s="16"/>
+      <c r="B137" s="17"/>
     </row>
     <row r="138" spans="1:2" ht="13.8">
-      <c r="A138" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="B138" s="17">
-        <v>117</v>
-      </c>
+      <c r="A138" s="16"/>
+      <c r="B138" s="17"/>
     </row>
     <row r="139" spans="1:2" ht="13.8">
-      <c r="A139" s="16" t="s">
-        <v>915</v>
-      </c>
-      <c r="B139" s="17">
-        <v>80</v>
-      </c>
+      <c r="A139" s="16"/>
+      <c r="B139" s="17"/>
     </row>
     <row r="140" spans="1:2" ht="13.8">
-      <c r="A140" s="16" t="s">
-        <v>916</v>
-      </c>
-      <c r="B140" s="17">
-        <v>190</v>
-      </c>
+      <c r="A140" s="16"/>
+      <c r="B140" s="17"/>
     </row>
     <row r="141" spans="1:2" ht="13.8">
-      <c r="A141" s="16" t="s">
-        <v>917</v>
-      </c>
-      <c r="B141" s="17">
-        <v>381</v>
-      </c>
+      <c r="A141" s="16"/>
+      <c r="B141" s="17"/>
     </row>
     <row r="142" spans="1:2" ht="13.8">
-      <c r="A142" s="16" t="s">
-        <v>918</v>
-      </c>
-      <c r="B142" s="17">
-        <v>190</v>
-      </c>
+      <c r="A142" s="16"/>
+      <c r="B142" s="17"/>
     </row>
     <row r="143" spans="1:2" ht="13.8">
-      <c r="A143" s="16" t="s">
-        <v>919</v>
-      </c>
-      <c r="B143" s="17">
-        <v>362</v>
-      </c>
+      <c r="A143" s="16"/>
+      <c r="B143" s="17"/>
     </row>
     <row r="144" spans="1:2" ht="13.8">
-      <c r="A144" s="16" t="s">
-        <v>920</v>
-      </c>
-      <c r="B144" s="17">
-        <v>327</v>
-      </c>
+      <c r="A144" s="16"/>
+      <c r="B144" s="17"/>
     </row>
     <row r="145" spans="1:2" ht="13.8">
-      <c r="A145" s="16" t="s">
-        <v>921</v>
-      </c>
-      <c r="B145" s="17">
-        <v>229</v>
-      </c>
+      <c r="A145" s="16"/>
+      <c r="B145" s="17"/>
     </row>
     <row r="146" spans="1:2" ht="13.8">
-      <c r="A146" s="16" t="s">
-        <v>922</v>
-      </c>
-      <c r="B146" s="17">
-        <v>309</v>
-      </c>
+      <c r="A146" s="16"/>
+      <c r="B146" s="17"/>
     </row>
     <row r="147" spans="1:2" ht="13.8">
-      <c r="A147" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="B147" s="17">
-        <v>95</v>
-      </c>
+      <c r="A147" s="16"/>
+      <c r="B147" s="17"/>
     </row>
     <row r="148" spans="1:2" ht="13.8">
-      <c r="A148" s="16" t="s">
-        <v>924</v>
-      </c>
-      <c r="B148" s="17">
-        <v>382</v>
-      </c>
+      <c r="A148" s="16"/>
+      <c r="B148" s="17"/>
     </row>
     <row r="149" spans="1:2" ht="13.8">
-      <c r="A149" s="16" t="s">
-        <v>925</v>
-      </c>
-      <c r="B149" s="17">
-        <v>89</v>
-      </c>
+      <c r="A149" s="16"/>
+      <c r="B149" s="17"/>
     </row>
     <row r="150" spans="1:2" ht="13.8">
-      <c r="A150" s="16" t="s">
-        <v>926</v>
-      </c>
-      <c r="B150" s="17">
-        <v>123</v>
-      </c>
+      <c r="A150" s="16"/>
+      <c r="B150" s="17"/>
     </row>
     <row r="151" spans="1:2" ht="13.8">
-      <c r="A151" s="16" t="s">
-        <v>927</v>
-      </c>
-      <c r="B151" s="17">
-        <v>199</v>
-      </c>
+      <c r="A151" s="16"/>
+      <c r="B151" s="17"/>
     </row>
     <row r="152" spans="1:2" ht="13.8">
-      <c r="A152" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="B152" s="17">
-        <v>183</v>
-      </c>
+      <c r="A152" s="16"/>
+      <c r="B152" s="17"/>
     </row>
     <row r="153" spans="1:2" ht="13.8">
-      <c r="A153" s="16" t="s">
-        <v>929</v>
-      </c>
-      <c r="B153" s="17">
-        <v>314</v>
-      </c>
+      <c r="A153" s="16"/>
+      <c r="B153" s="17"/>
     </row>
     <row r="154" spans="1:2" ht="13.8">
-      <c r="A154" s="16" t="s">
-        <v>930</v>
-      </c>
-      <c r="B154" s="17">
-        <v>188</v>
-      </c>
+      <c r="A154" s="16"/>
+      <c r="B154" s="17"/>
     </row>
     <row r="155" spans="1:2" ht="13.8">
-      <c r="A155" s="16" t="s">
-        <v>931</v>
-      </c>
-      <c r="B155" s="17">
-        <v>202</v>
-      </c>
+      <c r="A155" s="16"/>
+      <c r="B155" s="17"/>
     </row>
     <row r="156" spans="1:2" ht="13.8">
-      <c r="A156" s="16" t="s">
-        <v>932</v>
-      </c>
-      <c r="B156" s="17">
-        <v>286</v>
-      </c>
+      <c r="A156" s="16"/>
+      <c r="B156" s="17"/>
     </row>
     <row r="157" spans="1:2" ht="13.8">
-      <c r="A157" s="16" t="s">
-        <v>933</v>
-      </c>
-      <c r="B157" s="17">
-        <v>238</v>
-      </c>
+      <c r="A157" s="16"/>
+      <c r="B157" s="17"/>
     </row>
     <row r="158" spans="1:2" ht="13.8">
-      <c r="A158" s="16" t="s">
-        <v>934</v>
-      </c>
-      <c r="B158" s="17">
-        <v>74</v>
-      </c>
+      <c r="A158" s="16"/>
+      <c r="B158" s="17"/>
     </row>
     <row r="159" spans="1:2" ht="13.8">
-      <c r="A159" s="16" t="s">
-        <v>935</v>
-      </c>
-      <c r="B159" s="17">
-        <v>330</v>
-      </c>
+      <c r="A159" s="16"/>
+      <c r="B159" s="17"/>
     </row>
     <row r="160" spans="1:2" ht="13.8">
-      <c r="A160" s="16" t="s">
-        <v>936</v>
-      </c>
-      <c r="B160" s="17">
-        <v>348</v>
-      </c>
+      <c r="A160" s="16"/>
+      <c r="B160" s="17"/>
     </row>
     <row r="161" spans="1:2" ht="13.8">
-      <c r="A161" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="B161" s="17">
-        <v>332</v>
-      </c>
+      <c r="A161" s="16"/>
+      <c r="B161" s="17"/>
     </row>
     <row r="162" spans="1:2" ht="13.8">
-      <c r="A162" s="16" t="s">
-        <v>938</v>
-      </c>
-      <c r="B162" s="17">
-        <v>60</v>
-      </c>
+      <c r="A162" s="16"/>
+      <c r="B162" s="17"/>
     </row>
     <row r="163" spans="1:2" ht="13.8">
-      <c r="A163" s="16" t="s">
-        <v>939</v>
-      </c>
-      <c r="B163" s="17">
-        <v>154</v>
-      </c>
+      <c r="A163" s="16"/>
+      <c r="B163" s="17"/>
     </row>
     <row r="164" spans="1:2" ht="13.8">
-      <c r="A164" s="16" t="s">
-        <v>940</v>
-      </c>
-      <c r="B164" s="17">
-        <v>182</v>
-      </c>
+      <c r="A164" s="16"/>
+      <c r="B164" s="17"/>
     </row>
     <row r="165" spans="1:2" ht="13.8">
-      <c r="A165" s="16" t="s">
-        <v>941</v>
-      </c>
-      <c r="B165" s="17">
-        <v>169</v>
-      </c>
+      <c r="A165" s="16"/>
+      <c r="B165" s="17"/>
     </row>
     <row r="166" spans="1:2" ht="13.8">
-      <c r="A166" s="16" t="s">
-        <v>942</v>
-      </c>
-      <c r="B166" s="17">
-        <v>379</v>
-      </c>
+      <c r="A166" s="16"/>
+      <c r="B166" s="17"/>
     </row>
     <row r="167" spans="1:2" ht="13.8">
-      <c r="A167" s="16" t="s">
-        <v>943</v>
-      </c>
-      <c r="B167" s="17">
-        <v>200</v>
-      </c>
+      <c r="A167" s="16"/>
+      <c r="B167" s="17"/>
     </row>
     <row r="168" spans="1:2" ht="13.8">
-      <c r="A168" s="16" t="s">
-        <v>944</v>
-      </c>
-      <c r="B168" s="17">
-        <v>334</v>
-      </c>
+      <c r="A168" s="16"/>
+      <c r="B168" s="17"/>
     </row>
     <row r="169" spans="1:2" ht="13.8">
-      <c r="A169" s="16" t="s">
-        <v>945</v>
-      </c>
-      <c r="B169" s="17">
-        <v>233</v>
-      </c>
+      <c r="A169" s="16"/>
+      <c r="B169" s="17"/>
     </row>
     <row r="170" spans="1:2" ht="13.8">
-      <c r="A170" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="B170" s="17">
-        <v>382</v>
-      </c>
+      <c r="A170" s="16"/>
+      <c r="B170" s="17"/>
     </row>
     <row r="171" spans="1:2" ht="13.8">
-      <c r="A171" s="16" t="s">
-        <v>947</v>
-      </c>
-      <c r="B171" s="17">
-        <v>61</v>
-      </c>
+      <c r="A171" s="16"/>
+      <c r="B171" s="17"/>
     </row>
     <row r="172" spans="1:2" ht="13.8">
-      <c r="A172" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="B172" s="17">
-        <v>95</v>
-      </c>
+      <c r="A172" s="16"/>
+      <c r="B172" s="17"/>
     </row>
     <row r="173" spans="1:2" ht="13.8">
-      <c r="A173" s="16" t="s">
-        <v>949</v>
-      </c>
-      <c r="B173" s="17">
-        <v>343</v>
-      </c>
+      <c r="A173" s="16"/>
+      <c r="B173" s="17"/>
     </row>
     <row r="174" spans="1:2" ht="13.8">
-      <c r="A174" s="16" t="s">
-        <v>950</v>
-      </c>
-      <c r="B174" s="17">
-        <v>374</v>
-      </c>
+      <c r="A174" s="16"/>
+      <c r="B174" s="17"/>
     </row>
     <row r="175" spans="1:2" ht="13.8">
-      <c r="A175" s="16" t="s">
-        <v>951</v>
-      </c>
-      <c r="B175" s="17">
-        <v>324</v>
-      </c>
+      <c r="A175" s="16"/>
+      <c r="B175" s="17"/>
     </row>
     <row r="176" spans="1:2" ht="13.8">
-      <c r="A176" s="16" t="s">
-        <v>952</v>
-      </c>
-      <c r="B176" s="17">
-        <v>223</v>
-      </c>
+      <c r="A176" s="16"/>
+      <c r="B176" s="17"/>
     </row>
     <row r="177" spans="1:2" ht="13.8">
-      <c r="A177" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="B177" s="17">
-        <v>325</v>
-      </c>
+      <c r="A177" s="16"/>
+      <c r="B177" s="17"/>
     </row>
     <row r="178" spans="1:2" ht="13.8">
-      <c r="A178" s="16" t="s">
-        <v>954</v>
-      </c>
-      <c r="B178" s="17">
-        <v>285</v>
-      </c>
+      <c r="A178" s="16"/>
+      <c r="B178" s="17"/>
     </row>
     <row r="179" spans="1:2" ht="13.8">
-      <c r="A179" s="16" t="s">
-        <v>955</v>
-      </c>
-      <c r="B179" s="17">
-        <v>71</v>
-      </c>
+      <c r="A179" s="16"/>
+      <c r="B179" s="17"/>
     </row>
     <row r="180" spans="1:2" ht="13.8">
-      <c r="A180" s="16" t="s">
-        <v>956</v>
-      </c>
-      <c r="B180" s="17">
-        <v>335</v>
-      </c>
+      <c r="A180" s="16"/>
+      <c r="B180" s="17"/>
     </row>
     <row r="181" spans="1:2" ht="13.8">
-      <c r="A181" s="16" t="s">
-        <v>957</v>
-      </c>
-      <c r="B181" s="17">
-        <v>106</v>
-      </c>
+      <c r="A181" s="16"/>
+      <c r="B181" s="17"/>
     </row>
     <row r="182" spans="1:2" ht="13.8">
-      <c r="A182" s="16" t="s">
-        <v>958</v>
-      </c>
-      <c r="B182" s="17">
-        <v>92</v>
-      </c>
+      <c r="A182" s="16"/>
+      <c r="B182" s="17"/>
     </row>
     <row r="183" spans="1:2" ht="13.8">
-      <c r="A183" s="16" t="s">
-        <v>959</v>
-      </c>
-      <c r="B183" s="17">
-        <v>386</v>
-      </c>
+      <c r="A183" s="16"/>
+      <c r="B183" s="17"/>
     </row>
     <row r="184" spans="1:2" ht="13.8">
-      <c r="A184" s="16" t="s">
-        <v>960</v>
-      </c>
-      <c r="B184" s="17">
-        <v>161</v>
-      </c>
+      <c r="A184" s="16"/>
+      <c r="B184" s="17"/>
     </row>
     <row r="185" spans="1:2" ht="13.8">
-      <c r="A185" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="B185" s="17">
-        <v>157</v>
-      </c>
+      <c r="A185" s="16"/>
+      <c r="B185" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61608,10 +61108,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B71"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -61619,548 +61119,813 @@
     <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="13.8">
-      <c r="A1" s="19" t="s">
-        <v>991</v>
-      </c>
-      <c r="B1" s="20">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.8">
-      <c r="A2" s="19" t="s">
-        <v>992</v>
-      </c>
-      <c r="B2" s="20">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8">
-      <c r="A3" s="19" t="s">
-        <v>993</v>
-      </c>
-      <c r="B3" s="20">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.8">
-      <c r="A4" s="19" t="s">
-        <v>994</v>
-      </c>
-      <c r="B4" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="13.8">
-      <c r="A5" s="19" t="s">
-        <v>995</v>
-      </c>
-      <c r="B5" s="20">
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>790</v>
+      </c>
+      <c r="B7">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.8">
-      <c r="A6" s="19" t="s">
-        <v>996</v>
-      </c>
-      <c r="B6" s="20">
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>777</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>791</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.8">
-      <c r="A7" s="19" t="s">
-        <v>997</v>
-      </c>
-      <c r="B7" s="20">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>782</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>778</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>803</v>
+      </c>
+      <c r="B18">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.8">
-      <c r="A8" s="19" t="s">
-        <v>998</v>
-      </c>
-      <c r="B8" s="20">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.8">
-      <c r="A9" s="19" t="s">
-        <v>999</v>
-      </c>
-      <c r="B9" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="13.8">
-      <c r="A10" s="19" t="s">
-        <v>962</v>
-      </c>
-      <c r="B10" s="20">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>780</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>781</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>804</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>779</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>792</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>793</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>794</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>795</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>796</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>798</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>797</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>784</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B55">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.8">
-      <c r="A11" s="19" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B11" s="20">
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>785</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>786</v>
+      </c>
+      <c r="B67">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.8">
-      <c r="A12" s="19" t="s">
-        <v>976</v>
-      </c>
-      <c r="B12" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="13.8">
-      <c r="A13" s="19" t="s">
-        <v>1001</v>
-      </c>
-      <c r="B13" s="20">
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B70">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B72">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.8">
-      <c r="A14" s="19" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B14" s="20">
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B73">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B87">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>799</v>
+      </c>
+      <c r="B90">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.8">
-      <c r="A15" s="19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B15" s="20">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>800</v>
+      </c>
+      <c r="B91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>801</v>
+      </c>
+      <c r="B92">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>802</v>
+      </c>
+      <c r="B93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B95">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="13.8">
-      <c r="A16" s="19" t="s">
-        <v>964</v>
-      </c>
-      <c r="B16" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="13.8">
-      <c r="A17" s="19" t="s">
-        <v>974</v>
-      </c>
-      <c r="B17" s="20">
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B97">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.8">
-      <c r="A18" s="19" t="s">
-        <v>963</v>
-      </c>
-      <c r="B18" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="13.8">
-      <c r="A19" s="19" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B19" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="13.8">
-      <c r="A20" s="19" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B20" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="13.8">
-      <c r="A21" s="19" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B21" s="20">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B98">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="13.8">
-      <c r="A22" s="19" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B22" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="13.8">
-      <c r="A23" s="19" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B23" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.8">
-      <c r="A24" s="19" t="s">
-        <v>1009</v>
-      </c>
-      <c r="B24" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="13.8">
-      <c r="A25" s="19" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B25" s="20">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B99">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="13.8">
-      <c r="A26" s="19" t="s">
-        <v>1011</v>
-      </c>
-      <c r="B26" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="13.8">
-      <c r="A27" s="19" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B27" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="13.8">
-      <c r="A28" s="19" t="s">
-        <v>1013</v>
-      </c>
-      <c r="B28" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="13.8">
-      <c r="A29" s="19" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B29" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="13.8">
-      <c r="A30" s="19" t="s">
-        <v>990</v>
-      </c>
-      <c r="B30" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="13.8">
-      <c r="A31" s="19" t="s">
-        <v>989</v>
-      </c>
-      <c r="B31" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="13.8">
-      <c r="A32" s="19" t="s">
-        <v>984</v>
-      </c>
-      <c r="B32" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="13.8">
-      <c r="A33" s="19" t="s">
-        <v>971</v>
-      </c>
-      <c r="B33" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="13.8">
-      <c r="A34" s="19" t="s">
-        <v>968</v>
-      </c>
-      <c r="B34" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="13.8">
-      <c r="A35" s="19" t="s">
-        <v>1015</v>
-      </c>
-      <c r="B35" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="13.8">
-      <c r="A36" s="19" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B36" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="13.8">
-      <c r="A37" s="19" t="s">
-        <v>970</v>
-      </c>
-      <c r="B37" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="13.8">
-      <c r="A38" s="19" t="s">
-        <v>969</v>
-      </c>
-      <c r="B38" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="13.8">
-      <c r="A39" s="19" t="s">
-        <v>981</v>
-      </c>
-      <c r="B39" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="13.8">
-      <c r="A40" s="19" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B40" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="13.8">
-      <c r="A41" s="19" t="s">
-        <v>972</v>
-      </c>
-      <c r="B41" s="20">
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B100">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B101">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="13.8">
-      <c r="A42" s="19" t="s">
-        <v>973</v>
-      </c>
-      <c r="B42" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.8">
-      <c r="A43" s="19" t="s">
-        <v>985</v>
-      </c>
-      <c r="B43" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.8">
-      <c r="A44" s="19" t="s">
-        <v>986</v>
-      </c>
-      <c r="B44" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.8">
-      <c r="A45" s="19" t="s">
-        <v>987</v>
-      </c>
-      <c r="B45" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.8">
-      <c r="A46" s="19" t="s">
-        <v>988</v>
-      </c>
-      <c r="B46" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.8">
-      <c r="A47" s="19" t="s">
-        <v>983</v>
-      </c>
-      <c r="B47" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="13.8">
-      <c r="A48" s="19" t="s">
-        <v>977</v>
-      </c>
-      <c r="B48" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="13.8">
-      <c r="A49" s="19" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B49" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13.8">
-      <c r="A50" s="19" t="s">
-        <v>979</v>
-      </c>
-      <c r="B50" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="13.8">
-      <c r="A51" s="19" t="s">
-        <v>978</v>
-      </c>
-      <c r="B51" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="13.8">
-      <c r="A52" s="19" t="s">
-        <v>966</v>
-      </c>
-      <c r="B52" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="13.8">
-      <c r="A53" s="19" t="s">
-        <v>1019</v>
-      </c>
-      <c r="B53" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="13.8">
-      <c r="A54" s="19" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B54" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="13.8">
-      <c r="A55" s="19" t="s">
-        <v>1021</v>
-      </c>
-      <c r="B55" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="13.8">
-      <c r="A56" s="19" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B56" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="13.8">
-      <c r="A57" s="19" t="s">
-        <v>982</v>
-      </c>
-      <c r="B57" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="13.8">
-      <c r="A58" s="19" t="s">
-        <v>980</v>
-      </c>
-      <c r="B58" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="13.8">
-      <c r="A59" s="19" t="s">
-        <v>967</v>
-      </c>
-      <c r="B59" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="13.8">
-      <c r="A60" s="19" t="s">
-        <v>975</v>
-      </c>
-      <c r="B60" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="13.8">
-      <c r="A61" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B61" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="13.8">
-      <c r="A62" s="19" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B62" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="13.8">
-      <c r="A63" s="19" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B63" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="13.8">
-      <c r="A64" s="19" t="s">
-        <v>965</v>
-      </c>
-      <c r="B64" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="13.8">
-      <c r="A65" s="19" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B65" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="13.8">
-      <c r="A66" s="19" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B66" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="13.8">
-      <c r="A67" s="18"/>
-    </row>
-    <row r="68" spans="1:2" ht="13.8">
-      <c r="A68" s="18"/>
-    </row>
-    <row r="69" spans="1:2" ht="13.8">
-      <c r="A69" s="18"/>
-    </row>
-    <row r="70" spans="1:2" ht="13.8">
-      <c r="A70" s="18"/>
-    </row>
-    <row r="71" spans="1:2" ht="13.8">
-      <c r="A71" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
